--- a/medicine/Soins infirmiers et profession infirmière/Hôtel-Dieu_de_France/Hôtel-Dieu_de_France.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Hôtel-Dieu_de_France/Hôtel-Dieu_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4tel-Dieu_de_France</t>
+          <t>Hôtel-Dieu_de_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’Hôtel-Dieu de France est un hôpital universitaire privé situé au boulevard Alfred Naccache dans le quartier Est de Beyrouth au Liban. L'hôpital appartient à l’État français et son centre hospitalier dépend de la Faculté de Médecine de l’Université Saint-Joseph de Beyrouth.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4tel-Dieu_de_France</t>
+          <t>Hôtel-Dieu_de_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hôpital est très ancien ; dès 1883, un accord est conclu entre le gouvernement français et les Pères Jésuites donnant naissance à la faculté française de Médecine (FFM) de l’Université Saint-Joseph (USJ). Un hôpital d’application fait cependant défaut à la faculté. Il faut attendre 1923 pour que l’Hôtel-Dieu de France ouvre ses portes et accueille son premier malade.
 En 1984, bien que demeurant la propriété de l’État français, la gestion de l’hôpital est transférée à l’université Saint-Joseph. En 2001 a lieu l’inauguration du nouveau bâtiment de l’hôpital regroupant de nouveaux services d’hospitalisation, un service de radiothérapie, de nouveaux locaux pour les laboratoires, des bureaux administratifs et un parking souterrain.
